--- a/Output_testing/R1_201907/Country/HKD/MN/PITCAIRN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PITCAIRN_201907_HKD_MN.xlsx
@@ -510,29 +510,37 @@
       <c r="C6" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>0.007313</v>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>0</v>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H6" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I6" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -548,31 +556,39 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -588,29 +604,37 @@
       <c r="C8" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>0.007313</v>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G8" s="8" t="n">
-        <v>0</v>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H8" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -626,29 +650,37 @@
       <c r="C9" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>0.2511</v>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.019112</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
     </row>
@@ -673,8 +705,10 @@
       <c r="F10" s="8" t="n">
         <v>2.691095</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.108771</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-10.28350260645289</v>
@@ -698,29 +732,37 @@
       <c r="C11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>0.258413</v>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F11" s="8" t="n">
-        <v>0</v>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G11" s="8" t="n">
-        <v>0.019112</v>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H11" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
     </row>
@@ -730,17 +772,25 @@
           <t>TRADE BALANCE</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n">
-        <v>-0.243787</v>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>0</v>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F12" s="8" t="n">
-        <v>0</v>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G12" s="8" t="n">
-        <v>-0.019112</v>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H12" s="10" t="n"/>
       <c r="I12" s="10" t="n"/>

--- a/Output_testing/R1_201907/Country/HKD/MN/PITCAIRN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PITCAIRN_201907_HKD_MN.xlsx
@@ -882,40 +882,173 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="n"/>
@@ -1043,40 +1176,175 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="n"/>
@@ -1204,40 +1472,173 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="n"/>
@@ -1365,40 +1766,171 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="n"/>
